--- a/downloaded_files/EECS205_Lecture-35305.xlsx
+++ b/downloaded_files/EECS205_Lecture-35305.xlsx
@@ -138,7 +138,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1220126</x:t>
